--- a/read_writer_excel/element_path.xlsx
+++ b/read_writer_excel/element_path.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27090" windowHeight="4755"/>
+    <workbookView windowWidth="28305" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>序号</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>xpath://*[text()='地图配置']:click</t>
+  </si>
+  <si>
+    <t>地图配置修改地图</t>
+  </si>
+  <si>
+    <t>xpath://input[@name='file']:send_keys</t>
   </si>
   <si>
     <t>操作日志</t>
@@ -232,8 +238,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -252,6 +258,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,29 +317,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -403,6 +409,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,30 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,10 +720,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,37 +738,37 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,7 +780,7 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,40 +810,40 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1202,15 +1208,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D33"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="110.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1578,10 +1584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>26</v>
-      </c>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -1594,7 +1597,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -1608,7 +1611,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
@@ -1636,7 +1639,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -1650,7 +1653,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -1676,8 +1679,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="2"/>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/read_writer_excel/element_path.xlsx
+++ b/read_writer_excel/element_path.xlsx
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1584,7 +1584,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>55</v>
       </c>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -1611,7 +1614,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>59</v>
@@ -1625,7 +1628,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>63</v>
@@ -1653,7 +1656,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
@@ -1667,7 +1670,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>

--- a/read_writer_excel/element_path.xlsx
+++ b/read_writer_excel/element_path.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28305" windowHeight="7785"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
   <si>
     <t>序号</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>xpath://*[text()='参数配置']:click</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>基本参数配置</t>
@@ -1210,8 +1213,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1259,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:4">
@@ -1267,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1281,13 +1284,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1295,13 +1298,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1309,13 +1312,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1323,13 +1326,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1337,13 +1340,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1351,13 +1354,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1365,13 +1368,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1379,13 +1382,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1393,13 +1396,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1407,13 +1410,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:4">
@@ -1421,13 +1424,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:4">
@@ -1435,13 +1438,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1449,13 +1452,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1463,13 +1466,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1477,13 +1480,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1491,13 +1494,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1505,13 +1508,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1519,13 +1522,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1533,13 +1536,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1547,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1561,13 +1564,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1575,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1589,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1603,13 +1606,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1617,13 +1620,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1631,13 +1634,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1645,13 +1648,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1659,13 +1662,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1673,13 +1676,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1687,13 +1690,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="3:3">

--- a/read_writer_excel/element_path.xlsx
+++ b/read_writer_excel/element_path.xlsx
@@ -1213,7 +1213,7 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D34"/>
     </sheetView>
   </sheetViews>

--- a/read_writer_excel/element_path.xlsx
+++ b/read_writer_excel/element_path.xlsx
@@ -33,7 +33,7 @@
     <t>登陆</t>
   </si>
   <si>
-    <t>css:input[placeholder='账号']:send_keys-&gt;css:input[placeholder='密码']:send_keys-&gt;css:button.el-button:click</t>
+    <t>css%input[placeholder='账号']%send_keys-&gt;css%input[placeholder='密码']%send_keys-&gt;css%button.el-button%click</t>
   </si>
   <si>
     <t>Y</t>
@@ -42,196 +42,196 @@
     <t>参数配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='参数配置']:click</t>
+    <t>xpath%//*[text()='参数配置']%click</t>
+  </si>
+  <si>
+    <t>基本参数配置</t>
+  </si>
+  <si>
+    <t>xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[2]/div/input%send_keys-&gt;xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[3]/div/input%send_keys-&gt;xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[5]/button/span/span%click-&gt;css%button.el-button--primary%click</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>基本参数配置</t>
-  </si>
-  <si>
-    <t>xpath://*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[2]/div/input:send_keys-&gt;xpath://*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[3]/div/input:send_keys-&gt;xpath://*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[5]/button/span/span:click-&gt;css:button.el-button--primary:click</t>
-  </si>
-  <si>
     <t>报警参数配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='报警参数配置']:click</t>
+    <t>xpath%//*[text()='报警参数配置']%click</t>
   </si>
   <si>
     <t>通道详情</t>
   </si>
   <si>
-    <t>xpath://*[text()='通道详情']:click</t>
+    <t>xpath%//*[text()='通道详情']%click-&gt;xpath%//input[@value='p']/preceding-sibling::span[1]%click</t>
   </si>
   <si>
     <t>阈值配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='阈值配置']:click</t>
+    <t>xpath%//*[text()='阈值配置']%click</t>
   </si>
   <si>
     <t>算法配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='算法配置']:click</t>
+    <t>xpath%//*[text()='算法配置']%click</t>
   </si>
   <si>
     <t>方案配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='方案配置']:click</t>
+    <t>xpath%//*[text()='方案配置']%click</t>
   </si>
   <si>
     <t>屏蔽区域配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='屏蔽区域配置']:click</t>
+    <t>xpath%//*[text()='屏蔽区域配置']%click</t>
   </si>
   <si>
     <t>瀑布图</t>
   </si>
   <si>
-    <t>xpath://*[text()='瀑布图']:click</t>
+    <t>xpath%//*[text()='瀑布图']%click</t>
   </si>
   <si>
     <t>调试配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='调试配置']:click</t>
+    <t>xpath%//*[text()='调试配置']%click</t>
   </si>
   <si>
     <t>系统配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='系统配置']:click</t>
+    <t>xpath%//*[text()='系统配置']%click</t>
   </si>
   <si>
     <t>用户管理</t>
   </si>
   <si>
-    <t>xpath://*[text()='用户管理']:click</t>
+    <t>xpath%//*[text()='用户管理']%click</t>
   </si>
   <si>
     <t>用户管理增加用户</t>
   </si>
   <si>
-    <t>xpath://*[text()='新增']:click-&gt;xpath://form[contains(@class,'info-form')]/div[1]/div/div/input:send_keys-&gt;xpath://form[contains(@class,'info-form')]/div[2]/div/div[1]/input:send_keys-&gt;xpath://form[contains(@class,'info-form')]/div[3]/div/div/input:send_keys-&gt;xpath://form[contains(@class,'info-form')]/div[4]/div/div/input:send_keys-&gt;xpath://form[contains(@class,'info-form')]/div[5]/div/div/input:send_keys-&gt;xpath://*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[1]/div/div[2]/div[2]/button[1]/span:click</t>
+    <t>xpath%//*[text()='新增']%click-&gt;xpath%//form[contains(@class,'info-form')]/div[1]/div/div/input%send_keys-&gt;xpath%//form[contains(@class,'info-form')]/div[2]/div/div[1]/input%send_keys-&gt;xpath%//form[contains(@class,'info-form')]/div[3]/div/div/input%send_keys-&gt;xpath%//form[contains(@class,'info-form')]/div[4]/div/div/input%send_keys-&gt;xpath%//form[contains(@class,'info-form')]/div[5]/div/div/input%send_keys-&gt;xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[1]/div/div[2]/div[2]/button[1]/span%click</t>
   </si>
   <si>
     <t>用户管理删除用户</t>
   </si>
   <si>
-    <t>xpath://table[@class='el-table__body']/tbody/tr[6]/td[12]/div/button[3]/span:click-&gt;xpath:/html/body/div[2]/div/div[3]/button[1]:click</t>
+    <t>xpath%//table[@class='el-table__body']/tbody/tr[6]/td[12]/div/button[3]/span%click-&gt;xpath%/html/body/div[2]/div/div[3]/button[1]%click</t>
   </si>
   <si>
     <t>基本配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='基本配置']:click</t>
+    <t>xpath%//*[text()='基本配置']%click</t>
   </si>
   <si>
     <t>外接设备配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='外接设备配置']:click</t>
+    <t>xpath%//*[text()='外接设备配置']%click</t>
   </si>
   <si>
     <t>设备列表</t>
   </si>
   <si>
-    <t>xpath://*[text()='设备列表']:click</t>
+    <t>xpath%//*[text()='设备列表']%click</t>
   </si>
   <si>
     <t>输出列表</t>
   </si>
   <si>
-    <t>xpath://*[text()='输出列表']:click</t>
+    <t>xpath%//*[text()='输出列表']%click</t>
   </si>
   <si>
     <t>防区配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='防区配置']:click</t>
+    <t>xpath%//*[text()='防区配置']%click</t>
   </si>
   <si>
     <t>防区初始化</t>
   </si>
   <si>
-    <t>xpath://*[text()='防区初始化']:click</t>
+    <t>xpath%//*[text()='防区初始化']%click</t>
   </si>
   <si>
     <t>防区列表</t>
   </si>
   <si>
-    <t>xpath://*[text()='防区列表']:click</t>
+    <t>xpath%//*[text()='防区列表']%click</t>
   </si>
   <si>
     <t>联动输出</t>
   </si>
   <si>
-    <t>xpath://*[text()='联动输出']:click</t>
+    <t>xpath%//*[text()='联动输出']%click</t>
   </si>
   <si>
     <t>定时计划</t>
   </si>
   <si>
-    <t>xpath://*[text()='定时计划']:click</t>
+    <t>xpath%//*[text()='定时计划']%click</t>
   </si>
   <si>
     <t>地图配置</t>
   </si>
   <si>
-    <t>xpath://*[text()='地图配置']:click</t>
+    <t>xpath%//*[text()='地图配置']%click</t>
   </si>
   <si>
     <t>地图配置修改地图</t>
   </si>
   <si>
-    <t>xpath://input[@name='file']:send_keys</t>
+    <t>xpath%//input[@name='file']%send_keys</t>
   </si>
   <si>
     <t>操作日志</t>
   </si>
   <si>
-    <t>xpath://*[text()='操作日志']:click</t>
+    <t>xpath%//*[text()='操作日志']%click</t>
   </si>
   <si>
     <t>升级&amp;维护</t>
   </si>
   <si>
-    <t>xpath://*[text()='升级&amp;维护']:click</t>
+    <t>xpath%//*[text()='升级&amp;维护']%click</t>
   </si>
   <si>
     <t>版本信息</t>
   </si>
   <si>
-    <t>xpath://*[text()='版本信息']:click</t>
+    <t>xpath%//*[text()='版本信息']%click</t>
   </si>
   <si>
     <t>报警记录主页</t>
   </si>
   <si>
-    <t>xpath://*[text()='报警记录']:click</t>
+    <t>xpath%//*[text()='报警记录']%click</t>
   </si>
   <si>
     <t>报警记录</t>
   </si>
   <si>
-    <t>xpath://*[@id="app"]/div/section/main/div/div/div[1]/ul/li[1]/span:click</t>
+    <t>xpath%//*[@id="app"]/div/section/main/div/div/div[1]/ul/li[1]/span%click</t>
   </si>
   <si>
     <t>报警统计</t>
   </si>
   <si>
-    <t>xpath://*[text()='报警统计']:click</t>
+    <t>xpath%//*[text()='报警统计']%click</t>
   </si>
   <si>
     <t>地图操作</t>
   </si>
   <si>
-    <t>xpath://*[text()='地图操作']:click</t>
+    <t>xpath%//*[text()='地图操作']%click</t>
   </si>
 </sst>
 </file>
@@ -259,8 +259,129 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,133 +396,12 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -412,6 +412,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,37 +466,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,126 +593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,17 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,21 +626,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,11 +647,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,25 +664,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,10 +711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,142 +723,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1213,14 +1216,14 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="110.75" customWidth="1"/>
+    <col min="3" max="3" width="193.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1262,7 +1265,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:4">
@@ -1270,13 +1273,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1290,7 +1293,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1300,11 +1303,11 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1318,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1332,7 +1335,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1346,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1360,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1374,7 +1377,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1388,7 +1391,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1402,7 +1405,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1416,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:4">
@@ -1430,7 +1433,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:4">
@@ -1444,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1458,7 +1461,7 @@
         <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1472,7 +1475,7 @@
         <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1486,7 +1489,7 @@
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1500,7 +1503,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1514,7 +1517,7 @@
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1528,7 +1531,7 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1542,7 +1545,7 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1556,7 +1559,7 @@
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1570,7 +1573,7 @@
         <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1584,7 +1587,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1598,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1612,7 +1615,7 @@
         <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1626,7 +1629,7 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1640,7 +1643,7 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1654,7 +1657,7 @@
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1668,7 +1671,7 @@
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1682,7 +1685,7 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1696,11 +1699,11 @@
         <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="2"/>
+      <c r="C38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/read_writer_excel/element_path.xlsx
+++ b/read_writer_excel/element_path.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21120" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>序号</t>
   </si>
@@ -51,19 +51,94 @@
     <t>xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[2]/div/input%send_keys-&gt;xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[3]/div/input%send_keys-&gt;xpath%//*[@id="app"]/div/section/main/div/div/div[2]/div/div/div[2]/div[5]/button/span/span%click-&gt;css%button.el-button--primary%click</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>报警参数配置</t>
   </si>
   <si>
     <t>xpath%//*[text()='报警参数配置']%click</t>
   </si>
   <si>
+    <t>报警参数配置_基本参数_报警间隔时间</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='报警间隔时间：']/following-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_基本参数_报警合并条数</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='报警合并条件：']/following-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='报警合并条件：']/following-sibling::div[2]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_基本参数_开启自动消警</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='开启自动消警']/preceding-sibling::span[1]/child::span%click-&gt;xpath%//*[text()='延时：']/following-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_基本参数_开启自动消警_取消</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='开启自动消警']/preceding-sibling::span[1]/child::span%click-&gt;xpath%//*[text()='保存']%click-&gt;wb%refresh</t>
+  </si>
+  <si>
+    <t>报警参数配置_基本参数_开启报警提示音</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='开启报警提示音']/preceding-sibling::span[1]/child::span%click-&gt;xpath%//*[text()='保存']%click-&gt;wb%refresh</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警风暴过滤</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='开启报警风暴过滤']/preceding-sibling::span[1]/child::span%click-&gt;xpath%//*[text()='保存']%click-&gt;wb%refresh</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警风暴过滤_分钟内触发次数</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='分钟内触发报警次数大于']/preceding-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警风暴过滤_大于条数</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='条，']/preceding-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警风暴过滤_多少分钟不在报警</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='分钟内不再触发报警']/preceding-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警风暴过滤_关闭</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警间隔时间动态调整</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='开启报警间隔时间动态调整']/preceding-sibling::span[1]/child::span%click-&gt;xpath%//*[text()='保存']%click-&gt;wb%refresh</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警间隔时间动态调整_报警间隔时间累加</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='报警间隔时间内再次触发报警条件，报警间隔时间累加']/following-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警间隔时间动态调整_报警间隔时间小于</t>
+  </si>
+  <si>
+    <t>xpath%//*[text()='最长报警间隔时间小于']/following-sibling::div[1]/child::input%send_keys-&gt;xpath%//*[text()='保存']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警间隔时间动态调整_关闭</t>
+  </si>
+  <si>
     <t>通道详情</t>
   </si>
   <si>
-    <t>xpath%//*[text()='通道详情']%click-&gt;xpath%//input[@value='p']/preceding-sibling::span[1]%click</t>
+    <t>xpath%//*[text()='通道详情']%click</t>
   </si>
   <si>
     <t>阈值配置</t>
@@ -232,6 +307,18 @@
   </si>
   <si>
     <t>xpath%//*[text()='地图操作']%click</t>
+  </si>
+  <si>
+    <t>报警参数配置_基本参数_开启自动消警_延时时间</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警环境过滤</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警环境过滤_档位</t>
+  </si>
+  <si>
+    <t>报警参数配置_报警抑制_开启报警环境过滤_检测周期</t>
   </si>
 </sst>
 </file>
@@ -239,12 +326,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,112 +340,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +363,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +421,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +436,53 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -412,187 +493,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,8 +705,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,39 +737,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +766,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -711,10 +792,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,137 +804,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,9 +942,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1214,23 +1292,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="193.75" customWidth="1"/>
+    <col min="1" max="1" width="5.15" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="175" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1244,7 +1323,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -1258,7 +1337,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1268,442 +1347,635 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:4">
+    <row r="4" ht="40.5" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="81" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" ht="54" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>50</v>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>52</v>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>54</v>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>56</v>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>58</v>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>64</v>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>68</v>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="3"/>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,14 +1987,68 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B4:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24">
+        <v>9999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
